--- a/Azure Roles.xlsx
+++ b/Azure Roles.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ispl13-my.sharepoint.com/personal/krishna_prajapati_intech-systems_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ispl13-my.sharepoint.com/personal/krishna_prajapati_intech-systems_com/Documents/Microsoft Teams Chat Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6094AFA3-A731-4744-B7DC-B5C0FA21C0F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{6094AFA3-A731-4744-B7DC-B5C0FA21C0F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9062D323-8788-472D-9F1E-2254157125A9}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E70F1259-5272-46EC-BC82-8930F15C8D7F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
   <si>
     <t xml:space="preserve">Role </t>
   </si>
@@ -78,13 +78,37 @@
   </si>
   <si>
     <t>Cognitive Services Data Reader</t>
+  </si>
+  <si>
+    <t>Event Grid System Topic</t>
+  </si>
+  <si>
+    <t>EventGrid Contributor</t>
+  </si>
+  <si>
+    <t>EventGrid TopicSpaces Publisher</t>
+  </si>
+  <si>
+    <t>EventGrid TopicSpaces Subscriber</t>
+  </si>
+  <si>
+    <t>Service Names</t>
+  </si>
+  <si>
+    <t>az01stmsdcrmq01</t>
+  </si>
+  <si>
+    <t>az01srchmsdcrmq01</t>
+  </si>
+  <si>
+    <t>az01egstmsdcrmq01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +120,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -136,12 +166,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -478,95 +511,159 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1694E354-4D03-49AC-A08F-9EA75B729745}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>